--- a/dpgmm_alpha70_comp100_spherical_conversions.xlsx
+++ b/dpgmm_alpha70_comp100_spherical_conversions.xlsx
@@ -19,36 +19,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>pattern</t>
+  </si>
+  <si>
+    <t>AD</t>
   </si>
   <si>
     <t>AD-AD</t>
   </si>
   <si>
-    <t>AD-EMCI</t>
-  </si>
-  <si>
-    <t>AD-LMCI</t>
+    <t>AD-MCI</t>
   </si>
   <si>
     <t>AD-N</t>
   </si>
   <si>
-    <t>APOE4_BIN</t>
+    <t>AD-SMC</t>
   </si>
   <si>
-    <t>EMCI-AD</t>
-  </si>
-  <si>
-    <t>EMCI-EMCI</t>
-  </si>
-  <si>
-    <t>EMCI-LMCI</t>
-  </si>
-  <si>
-    <t>EMCI-N</t>
+    <t>APOE4_BIN</t>
   </si>
   <si>
     <t>Gender</t>
@@ -57,28 +48,49 @@
     <t>Handedness</t>
   </si>
   <si>
-    <t>LMCI-AD</t>
+    <t>MCI</t>
   </si>
   <si>
-    <t>LMCI-EMCI</t>
+    <t>MCI-AD</t>
   </si>
   <si>
-    <t>LMCI-LMCI</t>
+    <t>MCI-MCI</t>
   </si>
   <si>
-    <t>LMCI-N</t>
+    <t>MCI-N</t>
+  </si>
+  <si>
+    <t>MCI-SMC</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>N-AD</t>
   </si>
   <si>
-    <t>N-EMCI</t>
-  </si>
-  <si>
-    <t>N-LMCI</t>
+    <t>N-MCI</t>
   </si>
   <si>
     <t>N-N</t>
+  </si>
+  <si>
+    <t>N-SMC</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>SMC-AD</t>
+  </si>
+  <si>
+    <t>SMC-MCI</t>
+  </si>
+  <si>
+    <t>SMC-N</t>
+  </si>
+  <si>
+    <t>SMC-SMC</t>
   </si>
   <si>
     <t>UW_EF_slope</t>
@@ -93,7 +105,13 @@
     <t>cortical_summary</t>
   </si>
   <si>
-    <t>count</t>
+    <t>cortical_summary_change</t>
+  </si>
+  <si>
+    <t>count_post</t>
+  </si>
+  <si>
+    <t>count_prior</t>
   </si>
   <si>
     <t>neg-neg</t>
@@ -480,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:BO39"/>
+  <dimension ref="A1:BU39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:73">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,8 +706,26 @@
       <c r="BO1" t="s">
         <v>28</v>
       </c>
+      <c r="BP1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:73">
       <c r="A2">
         <v>0</v>
       </c>
@@ -808,11 +844,11 @@
         <v>0</v>
       </c>
       <c r="AN2">
+        <v>0.17948717948699999</v>
+      </c>
+      <c r="AO2">
         <v>0.105263157895</v>
       </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
       <c r="AP2">
         <v>0</v>
       </c>
@@ -820,79 +856,97 @@
         <v>0</v>
       </c>
       <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>0.78947368421099995</v>
       </c>
-      <c r="AS2">
-        <v>0.105263157895</v>
-      </c>
       <c r="AT2">
-        <v>0.26315789473700002</v>
+        <v>1.63157894737</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>0.69230769230800004</v>
       </c>
       <c r="AW2">
-        <v>1.63157894737</v>
+        <v>0.36842105263199998</v>
       </c>
       <c r="AX2">
+        <v>0.42105263157900003</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0.12820512820499999</v>
+      </c>
+      <c r="BB2">
+        <v>5.2631578947399997E-2</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>5.2631578947399997E-2</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>-0.29380631578900002</v>
+      </c>
+      <c r="BL2">
+        <v>-0.20431894736799999</v>
+      </c>
+      <c r="BM2">
+        <v>6.0222222222200005E-4</v>
+      </c>
+      <c r="BN2">
+        <v>1.2639048040500001</v>
+      </c>
+      <c r="BO2">
+        <v>5.8494204268500001E-2</v>
+      </c>
+      <c r="BP2">
+        <v>20</v>
+      </c>
+      <c r="BQ2">
+        <v>19</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
         <v>1</v>
       </c>
-      <c r="AY2">
-        <v>0.26315789473700002</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0.15789473684200001</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>5.2631578947399997E-2</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>5.2631578947399997E-2</v>
-      </c>
-      <c r="BG2">
-        <v>-0.29380631578900002</v>
-      </c>
-      <c r="BH2">
-        <v>-0.20431894736799999</v>
-      </c>
-      <c r="BI2">
-        <v>6.0222222222200005E-4</v>
-      </c>
-      <c r="BJ2">
-        <v>1.2639048040500001</v>
-      </c>
-      <c r="BK2">
-        <v>19</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:73">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1011,11 +1065,11 @@
         <v>0</v>
       </c>
       <c r="AN3">
+        <v>0.4</v>
+      </c>
+      <c r="AO3">
         <v>0.181818181818</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
       <c r="AP3">
         <v>0</v>
       </c>
@@ -1023,79 +1077,97 @@
         <v>0</v>
       </c>
       <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>0.90909090909099999</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
+        <v>1.0909090909100001</v>
+      </c>
+      <c r="AU3">
+        <v>1.18181818182</v>
+      </c>
+      <c r="AV3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AW3">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="AX3">
+        <v>0.27272727272699998</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0.04</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
         <v>9.0909090909100002E-2</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>1.0909090909100001</v>
-      </c>
-      <c r="AX3">
-        <v>1.18181818182</v>
-      </c>
-      <c r="AY3">
-        <v>0.36363636363599999</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0.27272727272699998</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
       <c r="BD3">
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>9.0909090909100002E-2</v>
+        <v>0</v>
       </c>
       <c r="BF3">
         <v>0</v>
       </c>
       <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
         <v>-0.24484909090900001</v>
       </c>
-      <c r="BH3">
+      <c r="BL3">
         <v>-0.26974999999999999</v>
       </c>
-      <c r="BI3">
+      <c r="BM3">
         <v>2.5777777777799999E-4</v>
       </c>
-      <c r="BJ3">
+      <c r="BN3">
         <v>1.3089348808600001</v>
       </c>
-      <c r="BK3">
+      <c r="BO3">
+        <v>5.0716678024199997E-2</v>
+      </c>
+      <c r="BP3">
+        <v>14</v>
+      </c>
+      <c r="BQ3">
         <v>11</v>
       </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:73">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1226,79 +1298,97 @@
         <v>0</v>
       </c>
       <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>0.555555555556</v>
       </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
       <c r="AT4">
-        <v>0.33333333333300003</v>
+        <v>1.6666666666700001</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1.11111111111</v>
       </c>
       <c r="AV4">
-        <v>0.33333333333300003</v>
+        <v>0.7</v>
       </c>
       <c r="AW4">
-        <v>1.6666666666700001</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.11111111111</v>
+        <v>0.444444444444</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.444444444444</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BA4">
+        <v>0.3</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
         <v>0.111111111111</v>
       </c>
-      <c r="BB4">
-        <v>0.111111111111</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
       <c r="BE4">
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.111111111111</v>
+        <v>0</v>
       </c>
       <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
         <v>6.5798888888899995E-2</v>
       </c>
-      <c r="BH4">
+      <c r="BL4">
         <v>7.2148888888900004E-2</v>
       </c>
-      <c r="BI4" s="1">
+      <c r="BM4" s="1">
         <v>5.7500000000000002E-5</v>
       </c>
-      <c r="BJ4">
+      <c r="BN4">
         <v>0.88554563067299996</v>
       </c>
-      <c r="BK4">
+      <c r="BO4">
+        <v>3.0130035410099999E-2</v>
+      </c>
+      <c r="BP4">
+        <v>11</v>
+      </c>
+      <c r="BQ4">
         <v>9</v>
       </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:73">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1429,26 +1519,26 @@
         <v>0</v>
       </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>1</v>
       </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
       <c r="AT5">
+        <v>1.6666666666700001</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>0.375</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
         <v>0.33333333333300003</v>
       </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>1.6666666666700001</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
       <c r="AY5">
         <v>0</v>
       </c>
@@ -1456,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -1465,43 +1555,61 @@
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.66666666666700003</v>
       </c>
       <c r="BE5">
         <v>0</v>
       </c>
       <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>-0.146143333333</v>
+      </c>
+      <c r="BL5">
+        <v>-1.069E-2</v>
+      </c>
+      <c r="BM5">
+        <v>2.1133333333300001E-3</v>
+      </c>
+      <c r="BN5">
+        <v>0.81099777749299995</v>
+      </c>
+      <c r="BO5">
+        <v>2.8598296811099998E-2</v>
+      </c>
+      <c r="BP5">
+        <v>5</v>
+      </c>
+      <c r="BQ5">
+        <v>3</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
         <v>0.66666666666700003</v>
       </c>
-      <c r="BG5">
-        <v>-0.146143333333</v>
-      </c>
-      <c r="BH5">
-        <v>-1.069E-2</v>
-      </c>
-      <c r="BI5">
-        <v>2.1133333333300001E-3</v>
-      </c>
-      <c r="BJ5">
-        <v>0.81099777749299995</v>
-      </c>
-      <c r="BK5">
-        <v>3</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0.33333333333300003</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0.66666666666700003</v>
-      </c>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:73">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1620,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
+        <v>0.181818181818</v>
+      </c>
+      <c r="AO6">
         <v>3.0303030303000002E-2</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
       </c>
       <c r="AP6">
         <v>3.0303030303000002E-2</v>
@@ -1632,79 +1740,97 @@
         <v>0</v>
       </c>
       <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>0.81818181818199998</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
+        <v>1.4848484848500001</v>
+      </c>
+      <c r="AU6">
+        <v>1.0606060606100001</v>
+      </c>
+      <c r="AV6">
+        <v>0.65151515151499995</v>
+      </c>
+      <c r="AW6">
+        <v>0.27272727272699998</v>
+      </c>
+      <c r="AX6">
+        <v>0.48484848484800003</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0.13636363636400001</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0.151515151515</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
         <v>3.0303030303000002E-2</v>
       </c>
-      <c r="AT6">
-        <v>0.39393939393900002</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>1.4848484848500001</v>
-      </c>
-      <c r="AX6">
-        <v>1.0606060606100001</v>
-      </c>
-      <c r="AY6">
-        <v>0.24242424242400001</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>9.0909090909100002E-2</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0.151515151515</v>
-      </c>
       <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>3.0303030303000002E-2</v>
+      </c>
+      <c r="BK6">
         <v>-6.9857878787899994E-2</v>
       </c>
-      <c r="BH6">
+      <c r="BL6">
         <v>-0.20202545454500001</v>
       </c>
-      <c r="BI6">
+      <c r="BM6">
         <v>1.2629629629599999E-4</v>
       </c>
-      <c r="BJ6">
+      <c r="BN6">
         <v>1.4631802622300001</v>
       </c>
-      <c r="BK6">
+      <c r="BO6">
+        <v>5.1456664924499997E-2</v>
+      </c>
+      <c r="BP6">
         <v>33</v>
       </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
+      <c r="BQ6">
+        <v>33</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:73">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1835,79 +1961,97 @@
         <v>0</v>
       </c>
       <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>0.4</v>
       </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
       <c r="AT7">
+        <v>1.2</v>
+      </c>
+      <c r="AU7">
+        <v>1.2</v>
+      </c>
+      <c r="AV7">
+        <v>0.615384615385</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0.8</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0.384615384615</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0.2</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>5.0280000000000004E-3</v>
+      </c>
+      <c r="BL7">
+        <v>8.4634000000000001E-2</v>
+      </c>
+      <c r="BM7">
+        <v>4.7399999999999997E-4</v>
+      </c>
+      <c r="BN7">
+        <v>0.80034766506499999</v>
+      </c>
+      <c r="BO7">
+        <v>3.3589785775399998E-2</v>
+      </c>
+      <c r="BP7">
+        <v>8</v>
+      </c>
+      <c r="BQ7">
+        <v>5</v>
+      </c>
+      <c r="BR7">
+        <v>0.2</v>
+      </c>
+      <c r="BS7">
+        <v>0.2</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
         <v>0.6</v>
       </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>1.2</v>
-      </c>
-      <c r="AX7">
-        <v>1.2</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0.2</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0.2</v>
-      </c>
-      <c r="BG7">
-        <v>5.0280000000000004E-3</v>
-      </c>
-      <c r="BH7">
-        <v>8.4634000000000001E-2</v>
-      </c>
-      <c r="BI7">
-        <v>4.7399999999999997E-4</v>
-      </c>
-      <c r="BJ7">
-        <v>0.80034766506499999</v>
-      </c>
-      <c r="BK7">
-        <v>5</v>
-      </c>
-      <c r="BL7">
-        <v>0.2</v>
-      </c>
-      <c r="BM7">
-        <v>0.2</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0.6</v>
-      </c>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:73">
       <c r="A8">
         <v>10</v>
       </c>
@@ -2026,11 +2170,11 @@
         <v>0</v>
       </c>
       <c r="AN8">
+        <v>0.5</v>
+      </c>
+      <c r="AO8">
         <v>0.33333333333300003</v>
       </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
       <c r="AP8">
         <v>0</v>
       </c>
@@ -2038,79 +2182,97 @@
         <v>0</v>
       </c>
       <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>0.33333333333300003</v>
       </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.3333333333299999</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AW8">
-        <v>1.3333333333299999</v>
+        <v>0.33333333333300003</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0.25</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
         <v>0.33333333333300003</v>
       </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
       <c r="BE8">
         <v>0</v>
       </c>
       <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>-0.12620999999999999</v>
+      </c>
+      <c r="BL8">
+        <v>-0.11978</v>
+      </c>
+      <c r="BM8">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="BN8">
+        <v>0.77239989123599995</v>
+      </c>
+      <c r="BO8">
+        <v>2.5790419486299999E-2</v>
+      </c>
+      <c r="BP8">
+        <v>5</v>
+      </c>
+      <c r="BQ8">
+        <v>3</v>
+      </c>
+      <c r="BR8">
         <v>0.33333333333300003</v>
       </c>
-      <c r="BG8">
-        <v>-0.12620999999999999</v>
-      </c>
-      <c r="BH8">
-        <v>-0.11978</v>
-      </c>
-      <c r="BI8">
-        <v>8.5999999999999998E-4</v>
-      </c>
-      <c r="BJ8">
-        <v>0.77239989123599995</v>
-      </c>
-      <c r="BK8">
-        <v>3</v>
-      </c>
-      <c r="BL8">
+      <c r="BS8">
         <v>0.33333333333300003</v>
       </c>
-      <c r="BM8">
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
         <v>0.33333333333300003</v>
       </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0.33333333333300003</v>
-      </c>
     </row>
-    <row r="9" spans="1:67">
+    <row r="9" spans="1:73">
       <c r="A9">
         <v>11</v>
       </c>
@@ -2229,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>5.2631578947399997E-2</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2241,79 +2403,97 @@
         <v>0</v>
       </c>
       <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>0.66666666666700003</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
+        <v>1.11111111111</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>0.68421052631599999</v>
+      </c>
+      <c r="AW9">
         <v>0.111111111111</v>
       </c>
-      <c r="AT9">
+      <c r="AX9">
         <v>0.555555555556</v>
       </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
+      <c r="AY9">
+        <v>0.222222222222</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0.26315789473700002</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
         <v>0.111111111111</v>
       </c>
-      <c r="AW9">
-        <v>1.11111111111</v>
-      </c>
-      <c r="AX9">
-        <v>1</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>5.4477777777800003E-2</v>
+      </c>
+      <c r="BL9">
+        <v>2.1583333333299998E-2</v>
+      </c>
+      <c r="BM9">
+        <v>-1.3999999999999999E-4</v>
+      </c>
+      <c r="BN9">
+        <v>0.70962908950900006</v>
+      </c>
+      <c r="BO9">
+        <v>1.7763740549900001E-2</v>
+      </c>
+      <c r="BP9">
+        <v>10</v>
+      </c>
+      <c r="BQ9">
+        <v>9</v>
+      </c>
+      <c r="BR9">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="BS9">
         <v>0.111111111111</v>
       </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
+      <c r="BT9">
         <v>0.111111111111</v>
       </c>
-      <c r="BG9">
-        <v>5.4477777777800003E-2</v>
-      </c>
-      <c r="BH9">
-        <v>2.1583333333299998E-2</v>
-      </c>
-      <c r="BI9">
-        <v>-1.3999999999999999E-4</v>
-      </c>
-      <c r="BJ9">
-        <v>0.70962908950900006</v>
-      </c>
-      <c r="BK9">
-        <v>9</v>
-      </c>
-      <c r="BL9">
-        <v>0.66666666666700003</v>
-      </c>
-      <c r="BM9">
+      <c r="BU9">
         <v>0.111111111111</v>
       </c>
-      <c r="BN9">
-        <v>0.111111111111</v>
-      </c>
-      <c r="BO9">
-        <v>0.111111111111</v>
-      </c>
     </row>
-    <row r="10" spans="1:67">
+    <row r="10" spans="1:73">
       <c r="A10">
         <v>13</v>
       </c>
@@ -2444,79 +2624,97 @@
         <v>0</v>
       </c>
       <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>0.2</v>
       </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
       <c r="AT10">
+        <v>1.2</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>0.72727272727299996</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
         <v>0.8</v>
       </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>1.2</v>
-      </c>
-      <c r="AX10">
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0.27272727272699998</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0.2</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0.219972</v>
+      </c>
+      <c r="BL10">
+        <v>-7.8355999999999995E-2</v>
+      </c>
+      <c r="BM10">
+        <v>2.34E-4</v>
+      </c>
+      <c r="BN10">
+        <v>0.53219253822000001</v>
+      </c>
+      <c r="BO10">
+        <v>-2.0325402775000001E-2</v>
+      </c>
+      <c r="BP10">
+        <v>6</v>
+      </c>
+      <c r="BQ10">
+        <v>5</v>
+      </c>
+      <c r="BR10">
         <v>1</v>
       </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0.2</v>
-      </c>
-      <c r="BG10">
-        <v>0.219972</v>
-      </c>
-      <c r="BH10">
-        <v>-7.8355999999999995E-2</v>
-      </c>
-      <c r="BI10">
-        <v>2.34E-4</v>
-      </c>
-      <c r="BJ10">
-        <v>0.53219253822000001</v>
-      </c>
-      <c r="BK10">
-        <v>5</v>
-      </c>
-      <c r="BL10">
-        <v>1</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:67">
+    <row r="11" spans="1:73">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2647,79 +2845,97 @@
         <v>0</v>
       </c>
       <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>0.66666666666700003</v>
       </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
       <c r="AT11">
+        <v>1.3333333333299999</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>0.83333333333299997</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
         <v>0.66666666666700003</v>
       </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>1.3333333333299999</v>
-      </c>
-      <c r="AX11">
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0.166666666667</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>-2.4673333333300001E-2</v>
+      </c>
+      <c r="BL11">
+        <v>5.1633333333300002E-2</v>
+      </c>
+      <c r="BM11">
+        <v>1.46666666667E-4</v>
+      </c>
+      <c r="BN11">
+        <v>0.982781822611</v>
+      </c>
+      <c r="BO11">
+        <v>5.2850972848199999E-2</v>
+      </c>
+      <c r="BP11">
+        <v>3</v>
+      </c>
+      <c r="BQ11">
+        <v>3</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
         <v>1</v>
       </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0.33333333333300003</v>
-      </c>
-      <c r="BG11">
-        <v>-2.4673333333300001E-2</v>
-      </c>
-      <c r="BH11">
-        <v>5.1633333333300002E-2</v>
-      </c>
-      <c r="BI11">
-        <v>1.46666666667E-4</v>
-      </c>
-      <c r="BJ11">
-        <v>0.982781822611</v>
-      </c>
-      <c r="BK11">
-        <v>3</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11">
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:67">
+    <row r="12" spans="1:73">
       <c r="A12">
         <v>15</v>
       </c>
@@ -2838,11 +3054,11 @@
         <v>0</v>
       </c>
       <c r="AN12">
+        <v>0.25</v>
+      </c>
+      <c r="AO12">
         <v>0.166666666667</v>
       </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
       <c r="AP12">
         <v>0</v>
       </c>
@@ -2850,79 +3066,97 @@
         <v>0</v>
       </c>
       <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>0.66666666666700003</v>
       </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
       <c r="AT12">
+        <v>1.1666666666700001</v>
+      </c>
+      <c r="AU12">
+        <v>1.1666666666700001</v>
+      </c>
+      <c r="AV12">
+        <v>0.41666666666699997</v>
+      </c>
+      <c r="AW12">
         <v>0.166666666667</v>
       </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>1.1666666666700001</v>
-      </c>
       <c r="AX12">
-        <v>1.1666666666700001</v>
+        <v>0.33333333333300003</v>
       </c>
       <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="BB12">
         <v>0.166666666667</v>
       </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
         <v>0.166666666667</v>
       </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>5.4716666666699998E-2</v>
+      </c>
+      <c r="BL12">
+        <v>-0.15448000000000001</v>
+      </c>
+      <c r="BM12">
+        <v>1.2375000000000001E-3</v>
+      </c>
+      <c r="BN12">
+        <v>1.08365858768</v>
+      </c>
+      <c r="BO12">
+        <v>5.2733922440199997E-2</v>
+      </c>
+      <c r="BP12">
+        <v>6</v>
+      </c>
+      <c r="BQ12">
+        <v>6</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
         <v>0.166666666667</v>
       </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0.166666666667</v>
-      </c>
-      <c r="BG12">
-        <v>5.4716666666699998E-2</v>
-      </c>
-      <c r="BH12">
-        <v>-0.15448000000000001</v>
-      </c>
-      <c r="BI12">
-        <v>1.2375000000000001E-3</v>
-      </c>
-      <c r="BJ12">
-        <v>1.08365858768</v>
-      </c>
-      <c r="BK12">
-        <v>6</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0.166666666667</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12">
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
         <v>0.83333333333299997</v>
       </c>
     </row>
-    <row r="13" spans="1:67">
+    <row r="13" spans="1:73">
       <c r="A13">
         <v>17</v>
       </c>
@@ -3041,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>7.6923076923100006E-2</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3053,79 +3287,97 @@
         <v>0</v>
       </c>
       <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>0.5</v>
       </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
       <c r="AT13">
-        <v>0.375</v>
+        <v>1.25</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>0.615384615385</v>
       </c>
       <c r="AW13">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AX13">
-        <v>1.125</v>
+        <v>0.5</v>
       </c>
       <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0.30769230769200001</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
         <v>0.25</v>
       </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0.125</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
       <c r="BE13">
         <v>0</v>
       </c>
       <c r="BF13">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
         <v>-0.20264124999999999</v>
       </c>
-      <c r="BH13">
+      <c r="BL13">
         <v>-0.13884125</v>
       </c>
-      <c r="BI13">
+      <c r="BM13">
         <v>1.6375E-4</v>
       </c>
-      <c r="BJ13">
+      <c r="BN13">
         <v>1.08478098152</v>
       </c>
-      <c r="BK13">
+      <c r="BO13">
+        <v>5.0337363561900002E-2</v>
+      </c>
+      <c r="BP13">
+        <v>5</v>
+      </c>
+      <c r="BQ13">
         <v>8</v>
       </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:67">
+    <row r="14" spans="1:73">
       <c r="A14">
         <v>18</v>
       </c>
@@ -3244,11 +3496,11 @@
         <v>0</v>
       </c>
       <c r="AN14">
+        <v>0.428571428571</v>
+      </c>
+      <c r="AO14">
         <v>0.25</v>
       </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
       <c r="AP14">
         <v>0</v>
       </c>
@@ -3256,79 +3508,97 @@
         <v>0</v>
       </c>
       <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>1</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
+        <v>1.5</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="AW14">
         <v>0.25</v>
       </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>0.25</v>
       </c>
-      <c r="AW14">
-        <v>1.5</v>
-      </c>
-      <c r="AX14">
+      <c r="AY14">
+        <v>0.25</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>-0.157445</v>
+      </c>
+      <c r="BL14">
+        <v>-0.33476250000000002</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="BN14">
+        <v>1.2694305053399999</v>
+      </c>
+      <c r="BO14">
+        <v>6.2804908193299994E-2</v>
+      </c>
+      <c r="BP14">
+        <v>3</v>
+      </c>
+      <c r="BQ14">
+        <v>4</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
         <v>1</v>
       </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0.25</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>-0.157445</v>
-      </c>
-      <c r="BH14">
-        <v>-0.33476250000000002</v>
-      </c>
-      <c r="BI14" s="1">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="BJ14">
-        <v>1.2694305053399999</v>
-      </c>
-      <c r="BK14">
-        <v>4</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:67">
+    <row r="15" spans="1:73">
       <c r="A15">
         <v>19</v>
       </c>
@@ -3447,11 +3717,11 @@
         <v>0</v>
       </c>
       <c r="AN15">
+        <v>0.222222222222</v>
+      </c>
+      <c r="AO15">
         <v>7.1428571428599999E-2</v>
       </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
       <c r="AP15">
         <v>0</v>
       </c>
@@ -3459,79 +3729,97 @@
         <v>0</v>
       </c>
       <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>0.85714285714299998</v>
       </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
       <c r="AT15">
-        <v>0.14285714285699999</v>
+        <v>1.57142857143</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1.07142857143</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>0.444444444444</v>
       </c>
       <c r="AW15">
-        <v>1.57142857143</v>
+        <v>0.28571428571399998</v>
       </c>
       <c r="AX15">
-        <v>1.07142857143</v>
+        <v>0.28571428571399998</v>
       </c>
       <c r="AY15">
-        <v>0.28571428571399998</v>
+        <v>0</v>
       </c>
       <c r="AZ15">
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0.14285714285699999</v>
+        <v>0.25925925925900001</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>7.1428571428599999E-2</v>
       </c>
       <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0.21428571428599999</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>7.4074074074099994E-2</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
         <v>7.1428571428599999E-2</v>
       </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15">
-        <v>0.21428571428599999</v>
-      </c>
-      <c r="BG15">
+      <c r="BK15">
         <v>-9.9159285714299994E-2</v>
       </c>
-      <c r="BH15">
+      <c r="BL15">
         <v>-0.104192857143</v>
       </c>
-      <c r="BI15">
+      <c r="BM15">
         <v>2.7428571428600001E-4</v>
       </c>
-      <c r="BJ15">
+      <c r="BN15">
         <v>1.11696064457</v>
       </c>
-      <c r="BK15">
+      <c r="BO15">
+        <v>4.7447162927300002E-2</v>
+      </c>
+      <c r="BP15">
+        <v>13</v>
+      </c>
+      <c r="BQ15">
         <v>14</v>
       </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
-        <v>0</v>
-      </c>
-      <c r="BO15">
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:67">
+    <row r="16" spans="1:73">
       <c r="A16">
         <v>20</v>
       </c>
@@ -3662,26 +3950,26 @@
         <v>0</v>
       </c>
       <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>1</v>
       </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
       <c r="AT16">
+        <v>1.5</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>0.88888888888899997</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
         <v>0.75</v>
       </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>1.5</v>
-      </c>
-      <c r="AX16">
-        <v>1</v>
-      </c>
       <c r="AY16">
         <v>0</v>
       </c>
@@ -3689,52 +3977,70 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>0.111111111111</v>
       </c>
       <c r="BB16">
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BD16">
         <v>0</v>
       </c>
       <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>-6.2015000000000001E-2</v>
+      </c>
+      <c r="BL16">
+        <v>0.114815</v>
+      </c>
+      <c r="BM16">
+        <v>-1.025E-4</v>
+      </c>
+      <c r="BN16">
+        <v>0.83315766125400004</v>
+      </c>
+      <c r="BO16">
+        <v>3.9880672628199998E-2</v>
+      </c>
+      <c r="BP16">
+        <v>5</v>
+      </c>
+      <c r="BQ16">
+        <v>4</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
         <v>0.25</v>
       </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>-6.2015000000000001E-2</v>
-      </c>
-      <c r="BH16">
-        <v>0.114815</v>
-      </c>
-      <c r="BI16">
-        <v>-1.025E-4</v>
-      </c>
-      <c r="BJ16">
-        <v>0.83315766125400004</v>
-      </c>
-      <c r="BK16">
-        <v>4</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0.25</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16">
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:67">
+    <row r="17" spans="1:73">
       <c r="A17">
         <v>22</v>
       </c>
@@ -3853,11 +4159,11 @@
         <v>0</v>
       </c>
       <c r="AN17">
+        <v>2.1834061135399999E-2</v>
+      </c>
+      <c r="AO17">
         <v>8.4745762711900003E-3</v>
       </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
       <c r="AP17">
         <v>0</v>
       </c>
@@ -3865,79 +4171,97 @@
         <v>0</v>
       </c>
       <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>0.19658119658100001</v>
       </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
       <c r="AT17">
-        <v>0.26271186440700001</v>
+        <v>1.3728813559299999</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>1.1271186440700001</v>
       </c>
       <c r="AV17">
-        <v>5.93220338983E-2</v>
+        <v>0.458515283843</v>
       </c>
       <c r="AW17">
-        <v>1.3728813559299999</v>
+        <v>2.5423728813599999E-2</v>
       </c>
       <c r="AX17">
-        <v>1.1271186440700001</v>
+        <v>0.38135593220300001</v>
       </c>
       <c r="AY17">
-        <v>2.5423728813599999E-2</v>
+        <v>9.3220338983100004E-2</v>
       </c>
       <c r="AZ17">
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0.118644067797</v>
+        <v>0.506550218341</v>
       </c>
       <c r="BB17">
+        <v>1.6949152542399998E-2</v>
+      </c>
+      <c r="BC17">
         <v>3.3898305084700001E-2</v>
       </c>
-      <c r="BC17">
-        <v>1.6949152542399998E-2</v>
-      </c>
       <c r="BD17">
-        <v>0</v>
+        <v>0.43220338983099998</v>
       </c>
       <c r="BE17">
-        <v>3.3898305084700001E-2</v>
+        <v>0</v>
       </c>
       <c r="BF17">
-        <v>0.43220338983099998</v>
+        <v>1.3100436681199999E-2</v>
       </c>
       <c r="BG17">
+        <v>8.4745762711900003E-3</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
         <v>1.12305084746E-2</v>
       </c>
-      <c r="BH17">
+      <c r="BL17">
         <v>2.74874576271E-2</v>
       </c>
-      <c r="BI17">
+      <c r="BM17">
         <v>1.6923809523799999E-4</v>
       </c>
-      <c r="BJ17">
+      <c r="BN17">
         <v>0.65496221170400004</v>
       </c>
-      <c r="BK17">
+      <c r="BO17">
+        <v>1.23946137663E-2</v>
+      </c>
+      <c r="BP17">
+        <v>111</v>
+      </c>
+      <c r="BQ17">
         <v>118</v>
       </c>
-      <c r="BL17">
+      <c r="BR17">
         <v>0.90677966101700003</v>
       </c>
-      <c r="BM17">
+      <c r="BS17">
         <v>4.2372881355899998E-2</v>
       </c>
-      <c r="BN17">
+      <c r="BT17">
         <v>8.4745762711900003E-3</v>
       </c>
-      <c r="BO17">
+      <c r="BU17">
         <v>4.2372881355899998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:67">
+    <row r="18" spans="1:73">
       <c r="A18">
         <v>23</v>
       </c>
@@ -4056,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>9.5238095238100007E-2</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -4068,25 +4392,25 @@
         <v>0</v>
       </c>
       <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>0.83333333333299997</v>
       </c>
-      <c r="AS18">
-        <v>0.166666666667</v>
-      </c>
       <c r="AT18">
-        <v>0.41666666666699997</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18">
-        <v>8.3333333333299994E-2</v>
+        <v>0.76190476190500001</v>
       </c>
       <c r="AW18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AX18">
-        <v>1</v>
+        <v>0.58333333333299997</v>
       </c>
       <c r="AY18">
         <v>8.3333333333299994E-2</v>
@@ -4095,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0.166666666667</v>
+        <v>0.14285714285699999</v>
       </c>
       <c r="BB18">
         <v>0</v>
@@ -4104,43 +4428,61 @@
         <v>0</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>8.3333333333299994E-2</v>
       </c>
       <c r="BE18">
         <v>0</v>
       </c>
       <c r="BF18">
-        <v>8.3333333333299994E-2</v>
+        <v>0</v>
       </c>
       <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
         <v>8.1208333333299999E-3</v>
       </c>
-      <c r="BH18">
+      <c r="BL18">
         <v>-0.11991499999999999</v>
       </c>
-      <c r="BI18">
+      <c r="BM18">
         <v>3.4545454545499999E-4</v>
       </c>
-      <c r="BJ18">
+      <c r="BN18">
         <v>1.19787554466</v>
       </c>
-      <c r="BK18">
+      <c r="BO18">
+        <v>2.56836318017E-2</v>
+      </c>
+      <c r="BP18">
+        <v>9</v>
+      </c>
+      <c r="BQ18">
         <v>12</v>
       </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18">
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:67">
+    <row r="19" spans="1:73">
       <c r="A19">
         <v>24</v>
       </c>
@@ -4271,79 +4613,97 @@
         <v>0</v>
       </c>
       <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>0.2</v>
       </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
       <c r="AT19">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>0.41666666666699997</v>
       </c>
       <c r="AW19">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AX19">
+        <v>0.4</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0.41666666666699997</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0.4</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0.166666666667</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0.2</v>
+      </c>
+      <c r="BK19">
+        <v>-4.4283999999999997E-2</v>
+      </c>
+      <c r="BL19">
+        <v>-6.0054000000000003E-2</v>
+      </c>
+      <c r="BM19">
+        <v>1.3075000000000001E-3</v>
+      </c>
+      <c r="BN19">
+        <v>1.26930997129</v>
+      </c>
+      <c r="BO19">
+        <v>9.6500342991899996E-2</v>
+      </c>
+      <c r="BP19">
+        <v>7</v>
+      </c>
+      <c r="BQ19">
+        <v>5</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
         <v>1</v>
       </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0.4</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>0</v>
-      </c>
-      <c r="BF19">
-        <v>0.4</v>
-      </c>
-      <c r="BG19">
-        <v>-4.4283999999999997E-2</v>
-      </c>
-      <c r="BH19">
-        <v>-6.0054000000000003E-2</v>
-      </c>
-      <c r="BI19">
-        <v>1.3075000000000001E-3</v>
-      </c>
-      <c r="BJ19">
-        <v>1.26930997129</v>
-      </c>
-      <c r="BK19">
-        <v>5</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>0</v>
-      </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
     </row>
-    <row r="20" spans="1:67">
+    <row r="20" spans="1:73">
       <c r="A20">
         <v>25</v>
       </c>
@@ -4480,73 +4840,91 @@
         <v>0</v>
       </c>
       <c r="AT20">
+        <v>2</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>0.6</v>
+      </c>
+      <c r="AW20">
         <v>0.2</v>
       </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>2</v>
-      </c>
       <c r="AX20">
+        <v>0.4</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0.4</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0.2</v>
+      </c>
+      <c r="BD20">
+        <v>0.2</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>-3.9620000000000002E-3</v>
+      </c>
+      <c r="BL20">
+        <v>5.0102000000000001E-2</v>
+      </c>
+      <c r="BM20" s="1">
+        <v>4.6666666666699997E-5</v>
+      </c>
+      <c r="BN20">
+        <v>0.58041957347200002</v>
+      </c>
+      <c r="BO20">
+        <v>6.5302259519500003E-3</v>
+      </c>
+      <c r="BP20">
+        <v>5</v>
+      </c>
+      <c r="BQ20">
+        <v>5</v>
+      </c>
+      <c r="BR20">
         <v>1</v>
       </c>
-      <c r="AY20">
-        <v>0.2</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0.2</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20">
-        <v>0.2</v>
-      </c>
-      <c r="BF20">
-        <v>0.2</v>
-      </c>
-      <c r="BG20">
-        <v>-3.9620000000000002E-3</v>
-      </c>
-      <c r="BH20">
-        <v>5.0102000000000001E-2</v>
-      </c>
-      <c r="BI20" s="1">
-        <v>4.6666666666699997E-5</v>
-      </c>
-      <c r="BJ20">
-        <v>0.58041957347200002</v>
-      </c>
-      <c r="BK20">
-        <v>5</v>
-      </c>
-      <c r="BL20">
-        <v>1</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BO20">
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:67">
+    <row r="21" spans="1:73">
       <c r="A21">
         <v>26</v>
       </c>
@@ -4665,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>5.4054054054099999E-2</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -4677,25 +5055,25 @@
         <v>0</v>
       </c>
       <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>0.222222222222</v>
       </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
       <c r="AT21">
-        <v>0.38888888888899997</v>
+        <v>1.38888888889</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>1.05555555556</v>
       </c>
       <c r="AV21">
+        <v>0.56756756756799998</v>
+      </c>
+      <c r="AW21">
         <v>5.5555555555600003E-2</v>
       </c>
-      <c r="AW21">
-        <v>1.38888888889</v>
-      </c>
       <c r="AX21">
-        <v>1.05555555556</v>
+        <v>0.5</v>
       </c>
       <c r="AY21">
         <v>5.5555555555600003E-2</v>
@@ -4704,52 +5082,70 @@
         <v>0</v>
       </c>
       <c r="BA21">
+        <v>0.37837837837799998</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>5.5555555555600003E-2</v>
+      </c>
+      <c r="BD21">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>-0.11770055555599999</v>
+      </c>
+      <c r="BL21">
+        <v>-0.184222777778</v>
+      </c>
+      <c r="BM21">
+        <v>1.5866666666699999E-4</v>
+      </c>
+      <c r="BN21">
+        <v>0.75903315517500003</v>
+      </c>
+      <c r="BO21">
+        <v>5.6105741705200001E-3</v>
+      </c>
+      <c r="BP21">
+        <v>19</v>
+      </c>
+      <c r="BQ21">
+        <v>18</v>
+      </c>
+      <c r="BR21">
+        <v>0.444444444444</v>
+      </c>
+      <c r="BS21">
+        <v>0.277777777778</v>
+      </c>
+      <c r="BT21">
         <v>0.111111111111</v>
       </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>5.5555555555600003E-2</v>
-      </c>
-      <c r="BF21">
-        <v>0.33333333333300003</v>
-      </c>
-      <c r="BG21">
-        <v>-0.11770055555599999</v>
-      </c>
-      <c r="BH21">
-        <v>-0.184222777778</v>
-      </c>
-      <c r="BI21">
-        <v>1.5866666666699999E-4</v>
-      </c>
-      <c r="BJ21">
-        <v>0.75903315517500003</v>
-      </c>
-      <c r="BK21">
-        <v>18</v>
-      </c>
-      <c r="BL21">
-        <v>0.444444444444</v>
-      </c>
-      <c r="BM21">
-        <v>0.277777777778</v>
-      </c>
-      <c r="BN21">
-        <v>0.111111111111</v>
-      </c>
-      <c r="BO21">
+      <c r="BU21">
         <v>0.166666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:67">
+    <row r="22" spans="1:73">
       <c r="A22">
         <v>27</v>
       </c>
@@ -4868,11 +5264,11 @@
         <v>0</v>
       </c>
       <c r="AN22">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="AO22">
         <v>0.5</v>
       </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
       <c r="AP22">
         <v>0</v>
       </c>
@@ -4880,79 +5276,97 @@
         <v>0</v>
       </c>
       <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
         <v>0.75</v>
       </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
       <c r="AT22">
+        <v>1.25</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+      <c r="AV22">
+        <v>0.428571428571</v>
+      </c>
+      <c r="AW22">
         <v>0.25</v>
       </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>1.25</v>
-      </c>
       <c r="AX22">
+        <v>0.25</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>-0.21354500000000001</v>
+      </c>
+      <c r="BL22">
+        <v>-0.28211999999999998</v>
+      </c>
+      <c r="BM22">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="BN22">
+        <v>1.53831967872</v>
+      </c>
+      <c r="BO22">
+        <v>7.6013860890599999E-2</v>
+      </c>
+      <c r="BP22">
+        <v>3</v>
+      </c>
+      <c r="BQ22">
+        <v>4</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
         <v>1</v>
       </c>
-      <c r="AY22">
-        <v>0.25</v>
-      </c>
-      <c r="AZ22">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BD22">
-        <v>0</v>
-      </c>
-      <c r="BE22">
-        <v>0</v>
-      </c>
-      <c r="BF22">
-        <v>0</v>
-      </c>
-      <c r="BG22">
-        <v>-0.21354500000000001</v>
-      </c>
-      <c r="BH22">
-        <v>-0.28211999999999998</v>
-      </c>
-      <c r="BI22">
-        <v>7.7999999999999999E-4</v>
-      </c>
-      <c r="BJ22">
-        <v>1.53831967872</v>
-      </c>
-      <c r="BK22">
-        <v>4</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
-        <v>0</v>
-      </c>
-      <c r="BO22">
-        <v>1</v>
-      </c>
     </row>
-    <row r="23" spans="1:67">
+    <row r="23" spans="1:73">
       <c r="A23">
         <v>29</v>
       </c>
@@ -5071,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1.1111111111100001E-2</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -5083,34 +5497,34 @@
         <v>0</v>
       </c>
       <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
         <v>0.18</v>
       </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
       <c r="AT23">
-        <v>0.36</v>
+        <v>1.56</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AV23">
+        <v>0.5</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0.54</v>
+      </c>
+      <c r="AY23">
         <v>0.02</v>
       </c>
-      <c r="AW23">
-        <v>1.56</v>
-      </c>
-      <c r="AX23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
       <c r="AZ23">
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0.18</v>
+        <v>0.444444444444</v>
       </c>
       <c r="BB23">
         <v>0</v>
@@ -5119,43 +5533,61 @@
         <v>0</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BE23">
         <v>0</v>
       </c>
       <c r="BF23">
-        <v>0.38</v>
+        <v>4.4444444444400003E-2</v>
       </c>
       <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0.04</v>
+      </c>
+      <c r="BK23">
         <v>6.4987400000000001E-2</v>
       </c>
-      <c r="BH23">
+      <c r="BL23">
         <v>2.04254E-2</v>
       </c>
-      <c r="BI23">
+      <c r="BM23">
         <v>2.7733333333299998E-4</v>
       </c>
-      <c r="BJ23">
+      <c r="BN23">
         <v>0.71129324480099998</v>
       </c>
-      <c r="BK23">
+      <c r="BO23">
+        <v>1.27505745881E-2</v>
+      </c>
+      <c r="BP23">
+        <v>40</v>
+      </c>
+      <c r="BQ23">
         <v>50</v>
       </c>
-      <c r="BL23">
+      <c r="BR23">
         <v>0.66</v>
       </c>
-      <c r="BM23">
+      <c r="BS23">
         <v>0.2</v>
       </c>
-      <c r="BN23">
+      <c r="BT23">
         <v>0.02</v>
       </c>
-      <c r="BO23">
+      <c r="BU23">
         <v>0.12</v>
       </c>
     </row>
-    <row r="24" spans="1:67">
+    <row r="24" spans="1:73">
       <c r="A24">
         <v>33</v>
       </c>
@@ -5286,79 +5718,97 @@
         <v>0</v>
       </c>
       <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>0.33333333333300003</v>
       </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
       <c r="AT24">
+        <v>1.7777777777799999</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <v>0.25</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0.222222222222</v>
+      </c>
+      <c r="AY24">
         <v>0.111111111111</v>
       </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0.4375</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0.3125</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="BK24">
+        <v>0.120125555556</v>
+      </c>
+      <c r="BL24">
+        <v>-1.32111111111E-2</v>
+      </c>
+      <c r="BM24">
+        <v>3.4777777777800001E-4</v>
+      </c>
+      <c r="BN24">
+        <v>0.77103166593500005</v>
+      </c>
+      <c r="BO24">
+        <v>3.3640496397099998E-2</v>
+      </c>
+      <c r="BP24">
+        <v>7</v>
+      </c>
+      <c r="BQ24">
+        <v>9</v>
+      </c>
+      <c r="BR24">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="BS24">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="BT24">
         <v>0.111111111111</v>
       </c>
-      <c r="AW24">
-        <v>1.7777777777799999</v>
-      </c>
-      <c r="AX24">
-        <v>1</v>
-      </c>
-      <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>0.111111111111</v>
-      </c>
-      <c r="BB24">
-        <v>0</v>
-      </c>
-      <c r="BC24">
-        <v>0</v>
-      </c>
-      <c r="BD24">
-        <v>0</v>
-      </c>
-      <c r="BE24">
-        <v>0</v>
-      </c>
-      <c r="BF24">
-        <v>0.33333333333300003</v>
-      </c>
-      <c r="BG24">
-        <v>0.120125555556</v>
-      </c>
-      <c r="BH24">
-        <v>-1.32111111111E-2</v>
-      </c>
-      <c r="BI24">
-        <v>3.4777777777800001E-4</v>
-      </c>
-      <c r="BJ24">
-        <v>0.77103166593500005</v>
-      </c>
-      <c r="BK24">
-        <v>9</v>
-      </c>
-      <c r="BL24">
-        <v>0.33333333333300003</v>
-      </c>
-      <c r="BM24">
-        <v>0.33333333333300003</v>
-      </c>
-      <c r="BN24">
-        <v>0.111111111111</v>
-      </c>
-      <c r="BO24">
+      <c r="BU24">
         <v>0.222222222222</v>
       </c>
     </row>
-    <row r="25" spans="1:67">
+    <row r="25" spans="1:73">
       <c r="A25">
         <v>34</v>
       </c>
@@ -5495,20 +5945,20 @@
         <v>0</v>
       </c>
       <c r="AT25">
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <v>1.5</v>
+      </c>
+      <c r="AV25">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
         <v>0.5</v>
       </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
-      <c r="AW25">
-        <v>1</v>
-      </c>
-      <c r="AX25">
-        <v>1.5</v>
-      </c>
       <c r="AY25">
         <v>0</v>
       </c>
@@ -5516,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>0.33333333333300003</v>
       </c>
       <c r="BB25">
         <v>0</v>
@@ -5525,43 +5975,61 @@
         <v>0</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BE25">
         <v>0</v>
       </c>
       <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>-4.0099999999999997E-2</v>
+      </c>
+      <c r="BL25">
+        <v>7.5209999999999999E-2</v>
+      </c>
+      <c r="BM25" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="BN25">
+        <v>0.71035861103999998</v>
+      </c>
+      <c r="BO25">
+        <v>1.6301672981699999E-2</v>
+      </c>
+      <c r="BP25">
+        <v>4</v>
+      </c>
+      <c r="BQ25">
+        <v>2</v>
+      </c>
+      <c r="BR25">
         <v>0.5</v>
       </c>
-      <c r="BG25">
-        <v>-4.0099999999999997E-2</v>
-      </c>
-      <c r="BH25">
-        <v>7.5209999999999999E-2</v>
-      </c>
-      <c r="BI25" s="1">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="BJ25">
-        <v>0.71035861103999998</v>
-      </c>
-      <c r="BK25">
-        <v>2</v>
-      </c>
-      <c r="BL25">
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
         <v>0.5</v>
       </c>
-      <c r="BM25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
-        <v>0</v>
-      </c>
-      <c r="BO25">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="26" spans="1:67">
+    <row r="26" spans="1:73">
       <c r="A26">
         <v>35</v>
       </c>
@@ -5692,79 +6160,97 @@
         <v>0</v>
       </c>
       <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
         <v>0.3</v>
       </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
       <c r="AT26">
+        <v>1.9</v>
+      </c>
+      <c r="AU26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AV26">
+        <v>0.57692307692300004</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0.4</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0.34615384615400002</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0.5</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>7.6923076923100006E-2</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
         <v>0.1</v>
       </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>1.9</v>
-      </c>
-      <c r="AX26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0.3</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
-        <v>0.5</v>
-      </c>
-      <c r="BG26">
+      <c r="BK26">
         <v>-1.155E-2</v>
       </c>
-      <c r="BH26">
+      <c r="BL26">
         <v>-7.2744000000000003E-2</v>
       </c>
-      <c r="BI26">
+      <c r="BM26">
         <v>4.02857142857E-4</v>
       </c>
-      <c r="BJ26">
+      <c r="BN26">
         <v>0.92482119017999997</v>
       </c>
-      <c r="BK26">
+      <c r="BO26">
+        <v>-1.97447039269E-2</v>
+      </c>
+      <c r="BP26">
+        <v>16</v>
+      </c>
+      <c r="BQ26">
         <v>10</v>
       </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
         <v>0.2</v>
       </c>
-      <c r="BN26">
+      <c r="BT26">
         <v>0.1</v>
       </c>
-      <c r="BO26">
+      <c r="BU26">
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:67">
+    <row r="27" spans="1:73">
       <c r="A27">
         <v>37</v>
       </c>
@@ -5883,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>0.53333333333300004</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5895,79 +6381,97 @@
         <v>0</v>
       </c>
       <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
         <v>0.83333333333299997</v>
       </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
       <c r="AT27">
-        <v>0</v>
+        <v>1.8333333333299999</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AW27">
-        <v>1.8333333333299999</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>6.66666666667E-2</v>
+      </c>
+      <c r="BB27">
+        <v>0.166666666667</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>-0.42963333333300002</v>
+      </c>
+      <c r="BL27">
+        <v>-0.474275</v>
+      </c>
+      <c r="BM27">
+        <v>-6.8999999999999997E-4</v>
+      </c>
+      <c r="BN27">
+        <v>1.7232706764000001</v>
+      </c>
+      <c r="BO27">
+        <v>6.4874463597900001E-2</v>
+      </c>
+      <c r="BP27">
+        <v>9</v>
+      </c>
+      <c r="BQ27">
+        <v>6</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
         <v>1</v>
       </c>
-      <c r="AY27">
-        <v>0.83333333333299997</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0.166666666667</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>-0.42963333333300002</v>
-      </c>
-      <c r="BH27">
-        <v>-0.474275</v>
-      </c>
-      <c r="BI27">
-        <v>-6.8999999999999997E-4</v>
-      </c>
-      <c r="BJ27">
-        <v>1.7232706764000001</v>
-      </c>
-      <c r="BK27">
-        <v>6</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
-      </c>
-      <c r="BN27">
-        <v>0</v>
-      </c>
-      <c r="BO27">
-        <v>1</v>
-      </c>
     </row>
-    <row r="28" spans="1:67">
+    <row r="28" spans="1:73">
       <c r="A28">
         <v>38</v>
       </c>
@@ -6086,11 +6590,11 @@
         <v>0</v>
       </c>
       <c r="AN28">
+        <v>0.17241379310300001</v>
+      </c>
+      <c r="AO28">
         <v>5.8823529411800003E-2</v>
       </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
       <c r="AP28">
         <v>0</v>
       </c>
@@ -6098,40 +6602,40 @@
         <v>0</v>
       </c>
       <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
         <v>0.70588235294099999</v>
       </c>
-      <c r="AS28">
+      <c r="AT28">
+        <v>1.11764705882</v>
+      </c>
+      <c r="AU28">
+        <v>1.0588235294099999</v>
+      </c>
+      <c r="AV28">
+        <v>0.75862068965499996</v>
+      </c>
+      <c r="AW28">
+        <v>0.176470588235</v>
+      </c>
+      <c r="AX28">
+        <v>0.70588235294099999</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>6.8965517241400001E-2</v>
+      </c>
+      <c r="BB28">
         <v>5.8823529411800003E-2</v>
       </c>
-      <c r="AT28">
-        <v>0.41176470588199998</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>1.11764705882</v>
-      </c>
-      <c r="AX28">
-        <v>1.0588235294099999</v>
-      </c>
-      <c r="AY28">
-        <v>0.11764705882400001</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0.29411764705900001</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
       <c r="BC28">
-        <v>5.8823529411800003E-2</v>
+        <v>0</v>
       </c>
       <c r="BD28">
         <v>0</v>
@@ -6143,34 +6647,52 @@
         <v>0</v>
       </c>
       <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
         <v>-9.7221176470599996E-2</v>
       </c>
-      <c r="BH28">
+      <c r="BL28">
         <v>-8.6929411764699996E-2</v>
       </c>
-      <c r="BI28">
+      <c r="BM28">
         <v>5.1529411764700001E-4</v>
       </c>
-      <c r="BJ28">
+      <c r="BN28">
         <v>1.1039516252799999</v>
       </c>
-      <c r="BK28">
+      <c r="BO28">
+        <v>4.4937159807999998E-2</v>
+      </c>
+      <c r="BP28">
+        <v>12</v>
+      </c>
+      <c r="BQ28">
         <v>17</v>
       </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
-      </c>
-      <c r="BN28">
-        <v>0</v>
-      </c>
-      <c r="BO28">
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:67">
+    <row r="29" spans="1:73">
       <c r="A29">
         <v>39</v>
       </c>
@@ -6301,25 +6823,25 @@
         <v>0</v>
       </c>
       <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
         <v>0.15384615384600001</v>
       </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
       <c r="AT29">
-        <v>0.15384615384600001</v>
+        <v>1.15384615385</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>1.15384615385</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>0.29411764705900001</v>
       </c>
       <c r="AW29">
-        <v>1.15384615385</v>
+        <v>0</v>
       </c>
       <c r="AX29">
-        <v>1.15384615385</v>
+        <v>0.30769230769200001</v>
       </c>
       <c r="AY29">
         <v>0</v>
@@ -6328,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0.15384615384600001</v>
+        <v>0.70588235294099999</v>
       </c>
       <c r="BB29">
         <v>0</v>
@@ -6337,43 +6859,61 @@
         <v>0</v>
       </c>
       <c r="BD29">
-        <v>0</v>
+        <v>0.69230769230800004</v>
       </c>
       <c r="BE29">
         <v>0</v>
       </c>
       <c r="BF29">
-        <v>0.69230769230800004</v>
+        <v>0</v>
       </c>
       <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
         <v>2.1615384615399999E-4</v>
       </c>
-      <c r="BH29">
+      <c r="BL29">
         <v>8.8536923076900004E-2</v>
       </c>
-      <c r="BI29">
+      <c r="BM29">
         <v>2.5099999999999998E-4</v>
       </c>
-      <c r="BJ29">
+      <c r="BN29">
         <v>0.60731504834200001</v>
       </c>
-      <c r="BK29">
+      <c r="BO29">
+        <v>3.4536858032899998E-3</v>
+      </c>
+      <c r="BP29">
+        <v>4</v>
+      </c>
+      <c r="BQ29">
         <v>13</v>
       </c>
-      <c r="BL29">
+      <c r="BR29">
         <v>1</v>
       </c>
-      <c r="BM29">
-        <v>0</v>
-      </c>
-      <c r="BN29">
-        <v>0</v>
-      </c>
-      <c r="BO29">
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BU29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:67">
+    <row r="30" spans="1:73">
       <c r="A30">
         <v>40</v>
       </c>
@@ -6504,79 +7044,97 @@
         <v>0</v>
       </c>
       <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
         <v>0.1</v>
       </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
       <c r="AT30">
+        <v>1.8</v>
+      </c>
+      <c r="AU30">
+        <v>1.2</v>
+      </c>
+      <c r="AV30">
+        <v>0.555555555556</v>
+      </c>
+      <c r="AW30">
+        <v>0.1</v>
+      </c>
+      <c r="AX30">
         <v>0.4</v>
       </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
-        <v>0</v>
-      </c>
-      <c r="AW30">
-        <v>1.8</v>
-      </c>
-      <c r="AX30">
-        <v>1.2</v>
-      </c>
       <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0.38888888888899997</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0.3</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>5.5555555555600003E-2</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
         <v>0.1</v>
       </c>
-      <c r="AZ30">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>0</v>
-      </c>
-      <c r="BB30">
-        <v>0</v>
-      </c>
-      <c r="BC30">
-        <v>0</v>
-      </c>
-      <c r="BD30">
-        <v>0</v>
-      </c>
-      <c r="BE30">
-        <v>0</v>
-      </c>
-      <c r="BF30">
-        <v>0.3</v>
-      </c>
-      <c r="BG30">
+      <c r="BK30">
         <v>2.9687999999999999E-2</v>
       </c>
-      <c r="BH30">
+      <c r="BL30">
         <v>3.8747999999999998E-2</v>
       </c>
-      <c r="BI30">
+      <c r="BM30">
         <v>-1.9625E-4</v>
       </c>
-      <c r="BJ30">
+      <c r="BN30">
         <v>0.72360495581700002</v>
       </c>
-      <c r="BK30">
+      <c r="BO30">
+        <v>-5.4285788445500001E-3</v>
+      </c>
+      <c r="BP30">
         <v>10</v>
       </c>
-      <c r="BL30">
+      <c r="BQ30">
+        <v>10</v>
+      </c>
+      <c r="BR30">
         <v>0.7</v>
       </c>
-      <c r="BM30">
+      <c r="BS30">
         <v>0.2</v>
       </c>
-      <c r="BN30">
-        <v>0</v>
-      </c>
-      <c r="BO30">
+      <c r="BT30">
+        <v>0</v>
+      </c>
+      <c r="BU30">
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:67">
+    <row r="31" spans="1:73">
       <c r="A31">
         <v>42</v>
       </c>
@@ -6695,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -6707,79 +7265,97 @@
         <v>0</v>
       </c>
       <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
         <v>0.5</v>
       </c>
-      <c r="AS31">
+      <c r="AT31">
+        <v>1.5</v>
+      </c>
+      <c r="AU31">
+        <v>1</v>
+      </c>
+      <c r="AV31">
+        <v>0.5</v>
+      </c>
+      <c r="AW31">
+        <v>0.5</v>
+      </c>
+      <c r="AX31">
         <v>0.25</v>
       </c>
-      <c r="AT31">
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
         <v>0.25</v>
       </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>1.5</v>
-      </c>
-      <c r="AX31">
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0.25</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>-8.0144999999999994E-2</v>
+      </c>
+      <c r="BL31">
+        <v>-0.15820000000000001</v>
+      </c>
+      <c r="BM31">
+        <v>9.2750000000000005E-4</v>
+      </c>
+      <c r="BN31">
+        <v>1.2476492025899999</v>
+      </c>
+      <c r="BO31">
+        <v>7.0045366755899993E-2</v>
+      </c>
+      <c r="BP31">
+        <v>4</v>
+      </c>
+      <c r="BQ31">
+        <v>4</v>
+      </c>
+      <c r="BR31">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>0</v>
+      </c>
+      <c r="BT31">
+        <v>0</v>
+      </c>
+      <c r="BU31">
         <v>1</v>
       </c>
-      <c r="AY31">
-        <v>0.25</v>
-      </c>
-      <c r="AZ31">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BD31">
-        <v>0</v>
-      </c>
-      <c r="BE31">
-        <v>0</v>
-      </c>
-      <c r="BF31">
-        <v>0.25</v>
-      </c>
-      <c r="BG31">
-        <v>-8.0144999999999994E-2</v>
-      </c>
-      <c r="BH31">
-        <v>-0.15820000000000001</v>
-      </c>
-      <c r="BI31">
-        <v>9.2750000000000005E-4</v>
-      </c>
-      <c r="BJ31">
-        <v>1.2476492025899999</v>
-      </c>
-      <c r="BK31">
-        <v>4</v>
-      </c>
-      <c r="BL31">
-        <v>0</v>
-      </c>
-      <c r="BM31">
-        <v>0</v>
-      </c>
-      <c r="BN31">
-        <v>0</v>
-      </c>
-      <c r="BO31">
-        <v>1</v>
-      </c>
     </row>
-    <row r="32" spans="1:67">
+    <row r="32" spans="1:73">
       <c r="A32">
         <v>45</v>
       </c>
@@ -6898,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>0.14285714285699999</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -6910,79 +7486,97 @@
         <v>0</v>
       </c>
       <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
         <v>0.33333333333300003</v>
       </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
       <c r="AT32">
+        <v>1.6666666666700001</v>
+      </c>
+      <c r="AU32">
+        <v>1</v>
+      </c>
+      <c r="AV32">
+        <v>0.28571428571399998</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
         <v>0.33333333333300003</v>
       </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
-      </c>
-      <c r="AW32">
-        <v>1.6666666666700001</v>
-      </c>
-      <c r="AX32">
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>-0.137306666667</v>
+      </c>
+      <c r="BL32">
+        <v>-6.7256666666699993E-2</v>
+      </c>
+      <c r="BM32">
+        <v>1.1050000000000001E-3</v>
+      </c>
+      <c r="BN32">
+        <v>1.0657877528399999</v>
+      </c>
+      <c r="BO32">
+        <v>7.8264761858800005E-2</v>
+      </c>
+      <c r="BP32">
+        <v>4</v>
+      </c>
+      <c r="BQ32">
+        <v>3</v>
+      </c>
+      <c r="BR32">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
+      <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
         <v>1</v>
       </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
-        <v>0</v>
-      </c>
-      <c r="BE32">
-        <v>0</v>
-      </c>
-      <c r="BF32">
-        <v>0.66666666666700003</v>
-      </c>
-      <c r="BG32">
-        <v>-0.137306666667</v>
-      </c>
-      <c r="BH32">
-        <v>-6.7256666666699993E-2</v>
-      </c>
-      <c r="BI32">
-        <v>1.1050000000000001E-3</v>
-      </c>
-      <c r="BJ32">
-        <v>1.0657877528399999</v>
-      </c>
-      <c r="BK32">
-        <v>3</v>
-      </c>
-      <c r="BL32">
-        <v>0</v>
-      </c>
-      <c r="BM32">
-        <v>0</v>
-      </c>
-      <c r="BN32">
-        <v>0</v>
-      </c>
-      <c r="BO32">
-        <v>1</v>
-      </c>
     </row>
-    <row r="33" spans="1:67">
+    <row r="33" spans="1:73">
       <c r="A33">
         <v>48</v>
       </c>
@@ -7101,11 +7695,11 @@
         <v>0</v>
       </c>
       <c r="AN33">
+        <v>3.4482758620700001E-2</v>
+      </c>
+      <c r="AO33">
         <v>3.2258064516099999E-2</v>
       </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
       <c r="AP33">
         <v>0</v>
       </c>
@@ -7113,79 +7707,97 @@
         <v>0</v>
       </c>
       <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
         <v>0.12903225806499999</v>
       </c>
-      <c r="AS33">
-        <v>0</v>
-      </c>
       <c r="AT33">
-        <v>0.225806451613</v>
+        <v>1.4193548387099999</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>1.22580645161</v>
       </c>
       <c r="AV33">
+        <v>0.448275862069</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0.35483870967699999</v>
+      </c>
+      <c r="AY33">
         <v>6.4516129032300001E-2</v>
       </c>
-      <c r="AW33">
-        <v>1.4193548387099999</v>
-      </c>
-      <c r="AX33">
-        <v>1.22580645161</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
       <c r="AZ33">
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0.12903225806499999</v>
+        <v>0.41379310344800002</v>
       </c>
       <c r="BB33">
         <v>0</v>
       </c>
       <c r="BC33">
-        <v>0</v>
+        <v>3.2258064516099999E-2</v>
       </c>
       <c r="BD33">
-        <v>0</v>
+        <v>0.41935483871000001</v>
       </c>
       <c r="BE33">
-        <v>3.2258064516099999E-2</v>
+        <v>0</v>
       </c>
       <c r="BF33">
-        <v>0.41935483871000001</v>
+        <v>0.10344827586200001</v>
       </c>
       <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>9.67741935484E-2</v>
+      </c>
+      <c r="BK33">
         <v>1.9896451612900001E-2</v>
       </c>
-      <c r="BH33">
+      <c r="BL33">
         <v>1.51883870968E-2</v>
       </c>
-      <c r="BI33">
+      <c r="BM33">
         <v>1.2275862068999999E-4</v>
       </c>
-      <c r="BJ33">
+      <c r="BN33">
         <v>0.58882494270600005</v>
       </c>
-      <c r="BK33">
+      <c r="BO33">
+        <v>4.8791040105999996E-3</v>
+      </c>
+      <c r="BP33">
+        <v>27</v>
+      </c>
+      <c r="BQ33">
         <v>31</v>
       </c>
-      <c r="BL33">
+      <c r="BR33">
         <v>0.93548387096800001</v>
       </c>
-      <c r="BM33">
+      <c r="BS33">
         <v>6.4516129032300001E-2</v>
       </c>
-      <c r="BN33">
-        <v>0</v>
-      </c>
-      <c r="BO33">
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:67">
+    <row r="34" spans="1:73">
       <c r="A34">
         <v>56</v>
       </c>
@@ -7304,11 +7916,11 @@
         <v>0</v>
       </c>
       <c r="AN34">
+        <v>0.38202247190999999</v>
+      </c>
+      <c r="AO34">
         <v>0.15</v>
       </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
       <c r="AP34">
         <v>0</v>
       </c>
@@ -7316,79 +7928,97 @@
         <v>0</v>
       </c>
       <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
         <v>0.7</v>
       </c>
-      <c r="AS34">
+      <c r="AT34">
+        <v>1.625</v>
+      </c>
+      <c r="AU34">
+        <v>1.075</v>
+      </c>
+      <c r="AV34">
+        <v>0.50561797752799997</v>
+      </c>
+      <c r="AW34">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AX34">
+        <v>0.3</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0.112359550562</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
         <v>0.05</v>
       </c>
-      <c r="AT34">
-        <v>0.2</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
-        <v>0</v>
-      </c>
-      <c r="AW34">
-        <v>1.625</v>
-      </c>
-      <c r="AX34">
-        <v>1.075</v>
-      </c>
-      <c r="AY34">
-        <v>0.375</v>
-      </c>
-      <c r="AZ34">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>0.1</v>
-      </c>
-      <c r="BB34">
-        <v>0</v>
-      </c>
-      <c r="BC34">
-        <v>0</v>
-      </c>
       <c r="BD34">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="BE34">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="BF34">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
         <v>-0.1473875</v>
       </c>
-      <c r="BH34">
+      <c r="BL34">
         <v>-0.17111699999999999</v>
       </c>
-      <c r="BI34">
+      <c r="BM34">
         <v>4.1062500000000002E-4</v>
       </c>
-      <c r="BJ34">
+      <c r="BN34">
         <v>1.4219920741300001</v>
       </c>
-      <c r="BK34">
+      <c r="BO34">
+        <v>3.7600756569500002E-2</v>
+      </c>
+      <c r="BP34">
+        <v>49</v>
+      </c>
+      <c r="BQ34">
         <v>40</v>
       </c>
-      <c r="BL34">
-        <v>0</v>
-      </c>
-      <c r="BM34">
-        <v>0</v>
-      </c>
-      <c r="BN34">
-        <v>0</v>
-      </c>
-      <c r="BO34">
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
+      <c r="BT34">
+        <v>0</v>
+      </c>
+      <c r="BU34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:67">
+    <row r="35" spans="1:73">
       <c r="A35">
         <v>63</v>
       </c>
@@ -7519,25 +8149,25 @@
         <v>0</v>
       </c>
       <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
         <v>0.33333333333300003</v>
       </c>
-      <c r="AS35">
-        <v>0</v>
-      </c>
       <c r="AT35">
-        <v>0.66666666666700003</v>
+        <v>1</v>
       </c>
       <c r="AU35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV35">
-        <v>0</v>
+        <v>0.81818181818199998</v>
       </c>
       <c r="AW35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX35">
-        <v>1</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="AY35">
         <v>0</v>
@@ -7546,52 +8176,70 @@
         <v>0</v>
       </c>
       <c r="BA35">
+        <v>0.181818181818</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0.166666666667</v>
       </c>
-      <c r="BB35">
-        <v>0</v>
-      </c>
-      <c r="BC35">
-        <v>0</v>
-      </c>
-      <c r="BD35">
-        <v>0</v>
-      </c>
       <c r="BE35">
         <v>0</v>
       </c>
       <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>-4.8280000000000003E-2</v>
+      </c>
+      <c r="BL35">
+        <v>5.8430000000000003E-2</v>
+      </c>
+      <c r="BM35">
+        <v>5.03333333333E-4</v>
+      </c>
+      <c r="BN35">
+        <v>0.82516901864299996</v>
+      </c>
+      <c r="BO35">
+        <v>-2.2379309014099999E-2</v>
+      </c>
+      <c r="BP35">
+        <v>5</v>
+      </c>
+      <c r="BQ35">
+        <v>6</v>
+      </c>
+      <c r="BR35">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="BS35">
         <v>0.166666666667</v>
       </c>
-      <c r="BG35">
-        <v>-4.8280000000000003E-2</v>
-      </c>
-      <c r="BH35">
-        <v>5.8430000000000003E-2</v>
-      </c>
-      <c r="BI35">
-        <v>5.03333333333E-4</v>
-      </c>
-      <c r="BJ35">
-        <v>0.82516901864299996</v>
-      </c>
-      <c r="BK35">
-        <v>6</v>
-      </c>
-      <c r="BL35">
+      <c r="BT35">
+        <v>0.166666666667</v>
+      </c>
+      <c r="BU35">
         <v>0.33333333333300003</v>
       </c>
-      <c r="BM35">
-        <v>0.166666666667</v>
-      </c>
-      <c r="BN35">
-        <v>0.166666666667</v>
-      </c>
-      <c r="BO35">
-        <v>0.33333333333300003</v>
-      </c>
     </row>
-    <row r="36" spans="1:67">
+    <row r="36" spans="1:73">
       <c r="A36">
         <v>65</v>
       </c>
@@ -7710,11 +8358,11 @@
         <v>0</v>
       </c>
       <c r="AN36">
+        <v>0.36666666666699999</v>
+      </c>
+      <c r="AO36">
         <v>0.14285714285699999</v>
       </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
       <c r="AP36">
         <v>0</v>
       </c>
@@ -7722,79 +8370,97 @@
         <v>0</v>
       </c>
       <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
         <v>0.428571428571</v>
       </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
       <c r="AT36">
+        <v>1.42857142857</v>
+      </c>
+      <c r="AU36">
+        <v>1.07142857143</v>
+      </c>
+      <c r="AV36">
+        <v>0.4</v>
+      </c>
+      <c r="AW36">
+        <v>0.28571428571399998</v>
+      </c>
+      <c r="AX36">
+        <v>0.28571428571399998</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0.23333333333299999</v>
+      </c>
+      <c r="BB36">
+        <v>7.1428571428599999E-2</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
         <v>0.21428571428599999</v>
       </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
-      </c>
-      <c r="AW36">
-        <v>1.42857142857</v>
-      </c>
-      <c r="AX36">
-        <v>1.07142857143</v>
-      </c>
-      <c r="AY36">
-        <v>0.28571428571399998</v>
-      </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>7.1428571428599999E-2</v>
-      </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
-      <c r="BC36">
-        <v>7.1428571428599999E-2</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
       <c r="BE36">
         <v>0</v>
       </c>
       <c r="BF36">
-        <v>0.21428571428599999</v>
+        <v>0</v>
       </c>
       <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
         <v>-0.20249214285700001</v>
       </c>
-      <c r="BH36">
+      <c r="BL36">
         <v>-0.21789857142899999</v>
       </c>
-      <c r="BI36">
+      <c r="BM36">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="BJ36">
+      <c r="BN36">
         <v>1.5843418577999999</v>
       </c>
-      <c r="BK36">
+      <c r="BO36">
+        <v>4.5701189653199997E-2</v>
+      </c>
+      <c r="BP36">
+        <v>16</v>
+      </c>
+      <c r="BQ36">
         <v>14</v>
       </c>
-      <c r="BL36">
-        <v>0</v>
-      </c>
-      <c r="BM36">
-        <v>0</v>
-      </c>
-      <c r="BN36">
-        <v>0</v>
-      </c>
-      <c r="BO36">
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>0</v>
+      </c>
+      <c r="BT36">
+        <v>0</v>
+      </c>
+      <c r="BU36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:67">
+    <row r="37" spans="1:73">
       <c r="A37">
         <v>67</v>
       </c>
@@ -7913,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>0.181818181818</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -7925,79 +8591,97 @@
         <v>0</v>
       </c>
       <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
         <v>1</v>
       </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
       <c r="AT37">
+        <v>1</v>
+      </c>
+      <c r="AU37">
+        <v>1</v>
+      </c>
+      <c r="AV37">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
         <v>0.66666666666700003</v>
       </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <v>0</v>
-      </c>
-      <c r="AW37">
+      <c r="AY37">
+        <v>0.33333333333300003</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0.27272727272699998</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>2.8979999999999999E-2</v>
+      </c>
+      <c r="BL37">
+        <v>0.13925666666700001</v>
+      </c>
+      <c r="BM37">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="BN37">
+        <v>1.00077011045</v>
+      </c>
+      <c r="BO37">
+        <v>3.3837845872799997E-2</v>
+      </c>
+      <c r="BP37">
+        <v>8</v>
+      </c>
+      <c r="BQ37">
+        <v>3</v>
+      </c>
+      <c r="BR37">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>0</v>
+      </c>
+      <c r="BT37">
+        <v>0</v>
+      </c>
+      <c r="BU37">
         <v>1</v>
       </c>
-      <c r="AX37">
-        <v>1</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
-      </c>
-      <c r="AZ37">
-        <v>0</v>
-      </c>
-      <c r="BA37">
-        <v>0</v>
-      </c>
-      <c r="BB37">
-        <v>0.33333333333300003</v>
-      </c>
-      <c r="BC37">
-        <v>0</v>
-      </c>
-      <c r="BD37">
-        <v>0</v>
-      </c>
-      <c r="BE37">
-        <v>0</v>
-      </c>
-      <c r="BF37">
-        <v>0</v>
-      </c>
-      <c r="BG37">
-        <v>2.8979999999999999E-2</v>
-      </c>
-      <c r="BH37">
-        <v>0.13925666666700001</v>
-      </c>
-      <c r="BI37">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="BJ37">
-        <v>1.00077011045</v>
-      </c>
-      <c r="BK37">
-        <v>3</v>
-      </c>
-      <c r="BL37">
-        <v>0</v>
-      </c>
-      <c r="BM37">
-        <v>0</v>
-      </c>
-      <c r="BN37">
-        <v>0</v>
-      </c>
-      <c r="BO37">
-        <v>1</v>
-      </c>
     </row>
-    <row r="38" spans="1:67">
+    <row r="38" spans="1:73">
       <c r="A38">
         <v>68</v>
       </c>
@@ -8134,19 +8818,19 @@
         <v>0</v>
       </c>
       <c r="AT38">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="AU38">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AV38">
-        <v>0</v>
+        <v>0.555555555556</v>
       </c>
       <c r="AW38">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AX38">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AY38">
         <v>0</v>
@@ -8155,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>0.25</v>
+        <v>0.444444444444</v>
       </c>
       <c r="BB38">
         <v>0</v>
@@ -8164,43 +8848,61 @@
         <v>0</v>
       </c>
       <c r="BD38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BE38">
         <v>0</v>
       </c>
       <c r="BF38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
         <v>1.6022499999999999E-2</v>
       </c>
-      <c r="BH38">
+      <c r="BL38">
         <v>-1.7534999999999999E-2</v>
       </c>
-      <c r="BI38" s="1">
+      <c r="BM38" s="1">
         <v>9.2499999999999999E-5</v>
       </c>
-      <c r="BJ38">
+      <c r="BN38">
         <v>1.0274662007099999</v>
       </c>
-      <c r="BK38">
+      <c r="BO38">
+        <v>3.0801861301499998E-2</v>
+      </c>
+      <c r="BP38">
+        <v>5</v>
+      </c>
+      <c r="BQ38">
         <v>4</v>
       </c>
-      <c r="BL38">
-        <v>0</v>
-      </c>
-      <c r="BM38">
-        <v>0</v>
-      </c>
-      <c r="BN38">
-        <v>0</v>
-      </c>
-      <c r="BO38">
+      <c r="BR38">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>0</v>
+      </c>
+      <c r="BT38">
+        <v>0</v>
+      </c>
+      <c r="BU38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:67">
+    <row r="39" spans="1:73">
       <c r="A39">
         <v>77</v>
       </c>
@@ -8319,7 +9021,7 @@
         <v>0.5</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>0.166666666667</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -8331,25 +9033,25 @@
         <v>0</v>
       </c>
       <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
         <v>0.25</v>
       </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
       <c r="AT39">
+        <v>1.75</v>
+      </c>
+      <c r="AU39">
+        <v>1</v>
+      </c>
+      <c r="AV39">
         <v>0.5</v>
       </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <v>0</v>
-      </c>
       <c r="AW39">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AX39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AY39">
         <v>0</v>
@@ -8358,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="BA39">
-        <v>0</v>
+        <v>0.33333333333300003</v>
       </c>
       <c r="BB39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BC39">
         <v>0.25</v>
@@ -8370,41 +9072,58 @@
         <v>0</v>
       </c>
       <c r="BE39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BF39">
         <v>0</v>
       </c>
       <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
         <v>2.6089999999999999E-2</v>
       </c>
-      <c r="BH39">
+      <c r="BL39">
         <v>-0.12590499999999999</v>
       </c>
-      <c r="BI39">
+      <c r="BM39">
         <v>-8.4999999999999995E-4</v>
       </c>
-      <c r="BJ39">
+      <c r="BN39">
         <v>1.0125590204499999</v>
       </c>
-      <c r="BK39">
+      <c r="BO39">
+        <v>4.2168728392100001E-2</v>
+      </c>
+      <c r="BP39">
+        <v>2</v>
+      </c>
+      <c r="BQ39">
         <v>4</v>
       </c>
-      <c r="BL39">
-        <v>0</v>
-      </c>
-      <c r="BM39">
-        <v>0</v>
-      </c>
-      <c r="BN39">
-        <v>0</v>
-      </c>
-      <c r="BO39">
+      <c r="BR39">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>0</v>
+      </c>
+      <c r="BT39">
+        <v>0</v>
+      </c>
+      <c r="BU39">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/dpgmm_alpha70_comp100_spherical_conversions.xlsx
+++ b/dpgmm_alpha70_comp100_spherical_conversions.xlsx
@@ -1376,16 +1376,16 @@
         <v>9</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.222222222222</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.444444444444</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.111111111111</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0.222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:73">
@@ -1597,16 +1597,16 @@
         <v>3</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="BT5">
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.66666666666700003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:73">
@@ -2039,16 +2039,16 @@
         <v>5</v>
       </c>
       <c r="BR7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BS7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="BT7">
         <v>0</v>
       </c>
       <c r="BU7">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:73">
@@ -2260,16 +2260,16 @@
         <v>3</v>
       </c>
       <c r="BR8">
-        <v>0.33333333333300003</v>
+        <v>1</v>
       </c>
       <c r="BS8">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="BT8">
         <v>0</v>
       </c>
       <c r="BU8">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:73">
@@ -2481,16 +2481,16 @@
         <v>9</v>
       </c>
       <c r="BR9">
-        <v>0.66666666666700003</v>
+        <v>0.88888888888899997</v>
       </c>
       <c r="BS9">
         <v>0.111111111111</v>
       </c>
       <c r="BT9">
-        <v>0.111111111111</v>
+        <v>0</v>
       </c>
       <c r="BU9">
-        <v>0.111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:73">
@@ -3368,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="BT13">
         <v>0</v>
       </c>
       <c r="BU13">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:73">
@@ -3810,13 +3810,13 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>7.1428571428599999E-2</v>
       </c>
       <c r="BT15">
         <v>0</v>
       </c>
       <c r="BU15">
-        <v>1</v>
+        <v>0.92857142857099995</v>
       </c>
     </row>
     <row r="16" spans="1:73">
@@ -4028,16 +4028,16 @@
         <v>4</v>
       </c>
       <c r="BR16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BS16">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="BT16">
         <v>0</v>
       </c>
       <c r="BU16">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:73">
@@ -4249,16 +4249,16 @@
         <v>118</v>
       </c>
       <c r="BR17">
-        <v>0.90677966101700003</v>
+        <v>0.97457627118599999</v>
       </c>
       <c r="BS17">
-        <v>4.2372881355899998E-2</v>
+        <v>1.6949152542399998E-2</v>
       </c>
       <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
         <v>8.4745762711900003E-3</v>
-      </c>
-      <c r="BU17">
-        <v>4.2372881355899998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:73">
@@ -5133,16 +5133,16 @@
         <v>18</v>
       </c>
       <c r="BR21">
-        <v>0.444444444444</v>
+        <v>1</v>
       </c>
       <c r="BS21">
-        <v>0.277777777778</v>
+        <v>0</v>
       </c>
       <c r="BT21">
-        <v>0.111111111111</v>
+        <v>0</v>
       </c>
       <c r="BU21">
-        <v>0.166666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:73">
@@ -5575,16 +5575,16 @@
         <v>50</v>
       </c>
       <c r="BR23">
-        <v>0.66</v>
+        <v>0.98</v>
       </c>
       <c r="BS23">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="BT23">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="BU23">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:73">
@@ -5796,16 +5796,16 @@
         <v>9</v>
       </c>
       <c r="BR24">
-        <v>0.33333333333300003</v>
+        <v>0.77777777777799995</v>
       </c>
       <c r="BS24">
-        <v>0.33333333333300003</v>
+        <v>0.222222222222</v>
       </c>
       <c r="BT24">
-        <v>0.111111111111</v>
+        <v>0</v>
       </c>
       <c r="BU24">
-        <v>0.222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:73">
@@ -6017,7 +6017,7 @@
         <v>2</v>
       </c>
       <c r="BR25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BS25">
         <v>0</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="BU25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:73">
@@ -6238,16 +6238,16 @@
         <v>10</v>
       </c>
       <c r="BR26">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BS26">
+        <v>0.1</v>
+      </c>
+      <c r="BT26">
+        <v>0.3</v>
+      </c>
+      <c r="BU26">
         <v>0.2</v>
-      </c>
-      <c r="BT26">
-        <v>0.1</v>
-      </c>
-      <c r="BU26">
-        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:73">
@@ -6683,13 +6683,13 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>5.8823529411800003E-2</v>
       </c>
       <c r="BT28">
         <v>0</v>
       </c>
       <c r="BU28">
-        <v>1</v>
+        <v>0.94117647058800002</v>
       </c>
     </row>
     <row r="29" spans="1:73">
@@ -7122,16 +7122,16 @@
         <v>10</v>
       </c>
       <c r="BR30">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="BS30">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BT30">
         <v>0</v>
       </c>
       <c r="BU30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:73">
@@ -7785,10 +7785,10 @@
         <v>31</v>
       </c>
       <c r="BR33">
-        <v>0.93548387096800001</v>
+        <v>1</v>
       </c>
       <c r="BS33">
-        <v>6.4516129032300001E-2</v>
+        <v>0</v>
       </c>
       <c r="BT33">
         <v>0</v>
@@ -8227,16 +8227,16 @@
         <v>6</v>
       </c>
       <c r="BR35">
-        <v>0.33333333333300003</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="BS35">
-        <v>0.166666666667</v>
+        <v>0</v>
       </c>
       <c r="BT35">
         <v>0.166666666667</v>
       </c>
       <c r="BU35">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:73">
@@ -8672,13 +8672,13 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>0</v>
+        <v>0.33333333333300003</v>
       </c>
       <c r="BT37">
         <v>0</v>
       </c>
       <c r="BU37">
-        <v>1</v>
+        <v>0.66666666666700003</v>
       </c>
     </row>
     <row r="38" spans="1:73">
@@ -9114,13 +9114,13 @@
         <v>0</v>
       </c>
       <c r="BS39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BT39">
         <v>0</v>
       </c>
       <c r="BU39">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
